--- a/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C647C3E-7BAC-41E2-98C2-80DB59003EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA953B1-770F-4B46-8D7C-249D0D082D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CF3C64D-3E79-4A4C-AB3E-B430753A0E61}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF7362A6-FFC3-4B28-947C-3D034EFA66DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="127">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>98,44%</t>
   </si>
   <si>
-    <t>94,41%</t>
+    <t>94,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>96,69%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,37 +139,37 @@
     <t>97,98%</t>
   </si>
   <si>
-    <t>89,49%</t>
+    <t>89,97%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>80,86%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>91,81%</t>
+    <t>90,72%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>10,03%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>19,14%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>8,19%</t>
+    <t>9,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,52 +196,52 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -331,13 +331,13 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,1%</t>
+    <t>96,83%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -346,13 +346,13 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -373,13 +373,13 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>61,2%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -388,13 +388,13 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>34,18%</t>
+    <t>38,8%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -403,28 +403,22 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>96,53%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
     <t>0,95%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
   </si>
 </sst>
 </file>
@@ -836,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4554C0D9-DBDD-42A1-A606-0516682A9EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15918EC5-46DC-4751-8FB6-81F207974241}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C450826-F94B-4509-B488-B221AA50E4B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9504FAC4-C7C4-4E9F-9C79-CBEE664CF091}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,7 +2332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB51BB10-F7E5-4000-9FC6-655745C739EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF57423D-0441-414C-9E90-C58606585A3F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,7 +2954,7 @@
         <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2984,7 +2978,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2993,13 +2987,13 @@
         <v>2037</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3008,13 +3002,13 @@
         <v>2037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA953B1-770F-4B46-8D7C-249D0D082D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCB3DD1-94A5-44F9-B46E-647B82479A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF7362A6-FFC3-4B28-947C-3D034EFA66DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5967FCFC-B6B1-48A7-82CA-93E4CD568B53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="129">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>98,44%</t>
   </si>
   <si>
-    <t>94,48%</t>
+    <t>95,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>96,69%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,37 +139,37 @@
     <t>97,98%</t>
   </si>
   <si>
-    <t>89,97%</t>
+    <t>89,44%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>80,86%</t>
+    <t>80,99%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>10,03%</t>
+    <t>10,56%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>19,14%</t>
+    <t>19,01%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,52 +196,52 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -322,7 +322,7 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2015 (Tasa respuesta: 5,43%)</t>
+    <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
   </si>
   <si>
     <t>98,16%</t>
@@ -331,13 +331,13 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>96,83%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -346,13 +346,13 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -373,13 +373,13 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>61,2%</t>
+    <t>68,9%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>82,81%</t>
+    <t>81,84%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -388,13 +388,13 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>38,8%</t>
+    <t>31,1%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>17,19%</t>
+    <t>18,16%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -403,22 +403,28 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,53%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
+    <t>98,07%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15918EC5-46DC-4751-8FB6-81F207974241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8C9C1-3397-4AB3-8884-51E1448BF8D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9504FAC4-C7C4-4E9F-9C79-CBEE664CF091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A634DD8-CE38-4E56-AE71-2559FC190ED5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2332,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF57423D-0441-414C-9E90-C58606585A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B600B37C-2323-49A7-AE28-99419F63B117}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2954,7 +2960,7 @@
         <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2978,7 +2984,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2987,13 +2993,13 @@
         <v>2037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3002,13 +3008,13 @@
         <v>2037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCB3DD1-94A5-44F9-B46E-647B82479A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1DBB423-B48A-49FA-AB86-F982A0510954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5967FCFC-B6B1-48A7-82CA-93E4CD568B53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C51D2F42-87FD-4420-AA79-4D8A74274706}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,01%</t>
+    <t>94,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>96,69%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,37 +139,37 @@
     <t>97,98%</t>
   </si>
   <si>
-    <t>89,44%</t>
+    <t>89,49%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>80,99%</t>
+    <t>82,13%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>90,61%</t>
+    <t>91,81%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>10,56%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>19,01%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>9,39%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,52 +196,52 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -331,13 +331,13 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>96,1%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,4%</t>
+    <t>97,85%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -346,13 +346,13 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>3,9%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -373,13 +373,13 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>68,9%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>81,84%</t>
+    <t>80,1%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -388,13 +388,13 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>31,1%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>18,16%</t>
+    <t>19,9%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -403,13 +403,13 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,11%</t>
+    <t>96,68%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -418,13 +418,13 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,94%</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8C9C1-3397-4AB3-8884-51E1448BF8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51822A5C-78CC-4047-83EF-DEDA9078F747}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A634DD8-CE38-4E56-AE71-2559FC190ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451D45EB-DE73-46A4-A626-E8E91640E2D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B600B37C-2323-49A7-AE28-99419F63B117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83887F-D838-4E25-8C16-BB485861F3BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1DBB423-B48A-49FA-AB86-F982A0510954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5851A31F-B9D9-448E-B4A7-A0F3ECF8F170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C51D2F42-87FD-4420-AA79-4D8A74274706}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{70177062-EE25-47D6-B571-1C61E6DB3425}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51822A5C-78CC-4047-83EF-DEDA9078F747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF4B4EC-366D-4CBB-A1DA-E62164128873}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451D45EB-DE73-46A4-A626-E8E91640E2D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E17E85-13F1-40EE-B2DB-70A33D9801CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83887F-D838-4E25-8C16-BB485861F3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA5E352-E9BE-484A-833C-DB00139F67B1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
